--- a/similarities/split_global/harmonic_similarity_timestamps_92.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:55.460000', '0:00:59.640000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:18.900000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=55.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=18.9</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['F#', 'B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
+          <t>('0:00:09.967000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000'), ('0:00:00.700000', '0:00:03.780000')]</t>
+          <t>('0:00:54.178526', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=54.178526</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:39.445827', '0:01:45.343696')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+          <t>('0:00:08.340000', '0:00:10.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=99.445827']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['F:7', 'Bb', 'Bb:7/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:03.682000')]</t>
+          <t>('0:00:10.080000', '0:00:11.390000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:01:00.720000', '0:01:10.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=60.72</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:01:08.040000', '0:01:22.320000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
+          <t>('0:00:33.480000', '0:00:46.320000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:16.200000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#', 'A#:min', 'F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B/5', 'B:min/5', 'F#:min', 'C#', 'F#:min']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:44.280000', '0:00:49.600000')]</t>
+          <t>('0:00:03.260000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:06.774988')]</t>
+          <t>('0:01:14.120000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=44.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['E:7', 'A:min', 'A:min/b7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:40.049000', '0:00:48.539000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
+          <t>('0:00:35.820000', '0:00:37.760000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Eb:7', 'Bb']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'Bb:7', 'F']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:26.670000', '0:00:36.510000')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:09.180000', '0:00:15.540000')]</t>
+          <t>('0:00:02.557446', '0:00:06.319079')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-39#t=2.557446</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:47.680000', '0:01:02.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:23.800000', '0:00:55.360000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_206</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
+          <t>['F:min/G#', 'A#:min', 'F:min/G#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:17.900000', '0:00:19.440000')]</t>
+          <t>('0:01:37.760000', '0:01:49.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
+          <t>('0:00:07.840000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-206#t=17.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=30.076213']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:16.520000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
+          <t>('0:00:41.300000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=16.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
